--- a/statistics4455.xlsx
+++ b/statistics4455.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Documents\BitBrain\LabStreamLayer\Functions\Predicting-Distraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riley\Desktop\UTK\DataVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABEA82-B6F4-4633-9EF2-62B945C42EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="6309"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,6 +98,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,16 +442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M22" sqref="A1:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4455</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,7 +533,7 @@
         <v>10845</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -569,7 +574,7 @@
         <v>0.36141307428919361</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -610,7 +615,7 @@
         <v>0.27552647083500909</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -651,7 +656,7 @@
         <v>-8.9462779937003717E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -692,7 +697,7 @@
         <v>0.1132335379329468</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -733,7 +738,7 @@
         <v>0.33248279757678117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,7 +779,7 @@
         <v>0.55491203719914184</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -815,12 +820,10 @@
         <v>1.0131310772573949</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>6688</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -899,7 +902,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,7 +943,7 @@
         <v>0.5945060417813367</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -981,7 +984,7 @@
         <v>0.17300933624815909</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
